--- a/SDG Financing Simplified model (Egypt)/v4_commented and cleaned - for calibration/input/paraminput_drc.xlsx
+++ b/SDG Financing Simplified model (Egypt)/v4_commented and cleaned - for calibration/input/paraminput_drc.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15255" windowHeight="11745"/>
+    <workbookView windowWidth="15780" windowHeight="12390"/>
   </bookViews>
   <sheets>
     <sheet name="Hardcode" sheetId="2" r:id="rId1"/>
@@ -1052,7 +1052,7 @@
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="B9" sqref="B9:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="1"/>
@@ -1129,7 +1129,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>1</v>
+        <v>1.478</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1153,7 +1153,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>0.25</v>
+        <v>0.064</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1161,7 +1161,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1169,7 +1169,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>0.352</v>
+        <v>0.448</v>
       </c>
     </row>
     <row r="15" spans="1:2">
